--- a/Code/Results/Cases/Case_2_65/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_65/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.40550279451022</v>
+        <v>11.70123487346835</v>
       </c>
       <c r="C2">
-        <v>12.12528674185814</v>
+        <v>7.658386050022585</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.21752855102272</v>
+        <v>21.36261348978845</v>
       </c>
       <c r="F2">
-        <v>30.58210902360741</v>
+        <v>38.37922495233495</v>
       </c>
       <c r="G2">
-        <v>2.064228819156653</v>
+        <v>3.614849352230174</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.483314060752135</v>
+        <v>7.674993271905417</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.89081433883419</v>
+        <v>18.84418612527423</v>
       </c>
       <c r="N2">
-        <v>11.51449709108505</v>
+        <v>17.12616918317195</v>
       </c>
       <c r="O2">
-        <v>14.11594635243618</v>
+        <v>20.12388729016065</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.19796501335434</v>
+        <v>11.19032637952035</v>
       </c>
       <c r="C3">
-        <v>11.44481678227394</v>
+        <v>7.310391844228143</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.7239656383367</v>
+        <v>21.33120191511144</v>
       </c>
       <c r="F3">
-        <v>29.453534602161</v>
+        <v>38.29901435393634</v>
       </c>
       <c r="G3">
-        <v>2.069652562877835</v>
+        <v>3.6168905678764</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.537347398972309</v>
+        <v>7.692949633881477</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.98593974570852</v>
+        <v>18.66590936621242</v>
       </c>
       <c r="N3">
-        <v>11.6800415126757</v>
+        <v>17.1804997178728</v>
       </c>
       <c r="O3">
-        <v>13.89251942045245</v>
+        <v>20.17093952112802</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.41349978131371</v>
+        <v>10.86579563516508</v>
       </c>
       <c r="C4">
-        <v>11.00581781350829</v>
+        <v>7.086697488044908</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.42172555901065</v>
+        <v>21.31578405168231</v>
       </c>
       <c r="F4">
-        <v>28.76674439106625</v>
+        <v>38.26021885541592</v>
       </c>
       <c r="G4">
-        <v>2.073081817256128</v>
+        <v>3.618210138490815</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.571332821620298</v>
+        <v>7.704521281693746</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.41018862463674</v>
+        <v>18.55880693066664</v>
       </c>
       <c r="N4">
-        <v>11.78510145875897</v>
+        <v>17.21570734213931</v>
       </c>
       <c r="O4">
-        <v>13.77049963444374</v>
+        <v>20.20557592714331</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.08295819741371</v>
+        <v>10.73101199899181</v>
       </c>
       <c r="C5">
-        <v>10.82166177114086</v>
+        <v>6.993094136585347</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.29891977895885</v>
+        <v>21.3104782690251</v>
       </c>
       <c r="F5">
-        <v>28.48879449206016</v>
+        <v>38.24704787699326</v>
       </c>
       <c r="G5">
-        <v>2.074504858654096</v>
+        <v>3.618764588419547</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.585392481111873</v>
+        <v>7.709374634003067</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.17073888590715</v>
+        <v>18.51579689897248</v>
       </c>
       <c r="N5">
-        <v>11.82877242681949</v>
+        <v>17.23052055912065</v>
       </c>
       <c r="O5">
-        <v>13.72451074791973</v>
+        <v>20.22112984580378</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.02741458701456</v>
+        <v>10.70848420410102</v>
       </c>
       <c r="C6">
-        <v>10.79076745879545</v>
+        <v>6.977406055803197</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.27855443658415</v>
+        <v>21.30965637410863</v>
       </c>
       <c r="F6">
-        <v>28.44276864052946</v>
+        <v>38.24502043460858</v>
       </c>
       <c r="G6">
-        <v>2.074742718713069</v>
+        <v>3.618857665480544</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.587739976673984</v>
+        <v>7.710188865389432</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.13069496160695</v>
+        <v>18.50869466543131</v>
       </c>
       <c r="N6">
-        <v>11.83607579409865</v>
+        <v>17.23300844729307</v>
       </c>
       <c r="O6">
-        <v>13.71709735314864</v>
+        <v>20.22379931918242</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.4090860310452</v>
+        <v>10.86398789084838</v>
       </c>
       <c r="C7">
-        <v>11.00335541597204</v>
+        <v>7.085444917053799</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.42006768822033</v>
+        <v>21.31570853463634</v>
       </c>
       <c r="F7">
-        <v>28.76298756459386</v>
+        <v>38.26003053307871</v>
       </c>
       <c r="G7">
-        <v>2.073100904384372</v>
+        <v>3.618217548250055</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.571521574559672</v>
+        <v>7.704586177146069</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.40697850867605</v>
+        <v>18.55822425687092</v>
       </c>
       <c r="N7">
-        <v>11.78568694586216</v>
+        <v>17.21590523091219</v>
       </c>
       <c r="O7">
-        <v>13.76986440267163</v>
+        <v>20.20577987285118</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.99804592765244</v>
+        <v>11.52742715376401</v>
       </c>
       <c r="C8">
-        <v>11.89509254058057</v>
+        <v>7.540519375186967</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.04727021860116</v>
+        <v>21.35098251240834</v>
       </c>
       <c r="F8">
-        <v>30.19191427596502</v>
+        <v>38.34940524777043</v>
       </c>
       <c r="G8">
-        <v>2.066078790411168</v>
+        <v>3.615539444276956</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.50178121412277</v>
+        <v>7.681071482179595</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.58312670735562</v>
+        <v>18.7822517227443</v>
       </c>
       <c r="N8">
-        <v>11.57086738336968</v>
+        <v>17.14451931319015</v>
       </c>
       <c r="O8">
-        <v>14.03571853953582</v>
+        <v>20.13891505095276</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.7749224588032</v>
+        <v>12.7354181834289</v>
       </c>
       <c r="C9">
-        <v>13.4736724683182</v>
+        <v>8.350672494196578</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.27741276422674</v>
+        <v>21.45064010215403</v>
       </c>
       <c r="F9">
-        <v>33.02806717654946</v>
+        <v>38.60706607230819</v>
       </c>
       <c r="G9">
-        <v>2.05306154324521</v>
+        <v>3.610810954836881</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.371101560387119</v>
+        <v>7.639274934073735</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.72137423771575</v>
+        <v>19.23842076996198</v>
       </c>
       <c r="N9">
-        <v>11.17678158775581</v>
+        <v>17.01915243793947</v>
       </c>
       <c r="O9">
-        <v>14.6801781102619</v>
+        <v>20.05361704171103</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.61209851879374</v>
+        <v>13.55828549208625</v>
       </c>
       <c r="C10">
-        <v>14.52821218662154</v>
+        <v>8.892818552334926</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.17405036701968</v>
+        <v>21.54211862825781</v>
       </c>
       <c r="F10">
-        <v>35.11545753320483</v>
+        <v>38.8456834192248</v>
       </c>
       <c r="G10">
-        <v>2.043908073625976</v>
+        <v>3.607652502080238</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.278296456702729</v>
+        <v>7.611170407558106</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.36841710089268</v>
+        <v>19.58127864298968</v>
       </c>
       <c r="N10">
-        <v>10.90402240294814</v>
+        <v>16.9358946931427</v>
       </c>
       <c r="O10">
-        <v>15.23166809682151</v>
+        <v>20.01916832114583</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.40470408032238</v>
+        <v>13.9172981980687</v>
       </c>
       <c r="C11">
-        <v>14.98503863652239</v>
+        <v>9.12747636933093</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.57919522847773</v>
+        <v>21.58761651063489</v>
       </c>
       <c r="F11">
-        <v>36.06312932812596</v>
+        <v>38.96469204896042</v>
       </c>
       <c r="G11">
-        <v>2.039821385527322</v>
+        <v>3.606283433363782</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.236652728442796</v>
+        <v>7.598944348209256</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.10610768575903</v>
+        <v>19.73837449443594</v>
       </c>
       <c r="N11">
-        <v>10.7836656729877</v>
+        <v>16.89992688180938</v>
       </c>
       <c r="O11">
-        <v>15.49991739497029</v>
+        <v>20.00967382478912</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.69871961164138</v>
+        <v>14.05095846604176</v>
       </c>
       <c r="C12">
-        <v>15.15474342566047</v>
+        <v>9.21458506304211</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.73214145522648</v>
+        <v>21.60539569132542</v>
       </c>
       <c r="F12">
-        <v>36.4215493024853</v>
+        <v>39.01123616226732</v>
       </c>
       <c r="G12">
-        <v>2.038283940524674</v>
+        <v>3.605774686451464</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.220955113585447</v>
+        <v>7.594394575822538</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.3799469622622</v>
+        <v>19.79797831814894</v>
       </c>
       <c r="N12">
-        <v>10.73863609938474</v>
+        <v>16.88658001839172</v>
       </c>
       <c r="O12">
-        <v>15.60401912784899</v>
+        <v>20.00696972160798</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.63566934496446</v>
+        <v>14.02227544046155</v>
       </c>
       <c r="C13">
-        <v>15.11834039364172</v>
+        <v>9.195902951917672</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.699223868312</v>
+        <v>21.60154230011153</v>
       </c>
       <c r="F13">
-        <v>36.34437903843</v>
+        <v>39.00114675642963</v>
       </c>
       <c r="G13">
-        <v>2.038614624841872</v>
+        <v>3.605883824032215</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.224332852130674</v>
+        <v>7.595370900134431</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.32121426796356</v>
+        <v>19.7851371997366</v>
       </c>
       <c r="N13">
-        <v>10.74830948267817</v>
+        <v>16.88944235858008</v>
       </c>
       <c r="O13">
-        <v>15.58148647150936</v>
+        <v>20.00751241716006</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.4290152569792</v>
+        <v>13.92834085940943</v>
       </c>
       <c r="C14">
-        <v>14.99906613093399</v>
+        <v>9.134678102697153</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.59178808218585</v>
+        <v>21.58906823956525</v>
       </c>
       <c r="F14">
-        <v>36.0926264330663</v>
+        <v>38.96849179557999</v>
       </c>
       <c r="G14">
-        <v>2.039694702776363</v>
+        <v>3.606241384534983</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.235359897368092</v>
+        <v>7.598568435173875</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.12874646732551</v>
+        <v>19.74327610050578</v>
       </c>
       <c r="N14">
-        <v>10.77995002480629</v>
+        <v>16.89882335311973</v>
       </c>
       <c r="O14">
-        <v>15.50843124933284</v>
+        <v>20.00943347899677</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.30163808122513</v>
+        <v>13.87050261089496</v>
       </c>
       <c r="C15">
-        <v>14.92557966817409</v>
+        <v>9.096947263811673</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.52591687665368</v>
+        <v>21.58149889961065</v>
       </c>
       <c r="F15">
-        <v>35.93835879789316</v>
+        <v>38.94868136820757</v>
       </c>
       <c r="G15">
-        <v>2.040357564907311</v>
+        <v>3.60646166109136</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.242123325398762</v>
+        <v>7.600537420815582</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.01013980853112</v>
+        <v>19.71764855453249</v>
       </c>
       <c r="N15">
-        <v>10.79940238962012</v>
+        <v>16.90460506034098</v>
       </c>
       <c r="O15">
-        <v>15.46401183162114</v>
+        <v>20.01072633387363</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.5594382558133</v>
+        <v>13.53450717439349</v>
       </c>
       <c r="C16">
-        <v>14.49789721415687</v>
+        <v>8.877239584332418</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.14751086334197</v>
+        <v>21.5392226867689</v>
       </c>
       <c r="F16">
-        <v>35.05347117862672</v>
+        <v>38.83811424563466</v>
       </c>
       <c r="G16">
-        <v>2.044176618028659</v>
+        <v>3.607743332555491</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.28102863501663</v>
+        <v>7.611980621141422</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.31943149974686</v>
+        <v>19.57103071966232</v>
       </c>
       <c r="N16">
-        <v>10.91196383194251</v>
+        <v>16.93828357050304</v>
       </c>
       <c r="O16">
-        <v>15.21448904477286</v>
+        <v>20.01991337297229</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.09312709960689</v>
+        <v>13.32439551031622</v>
       </c>
       <c r="C17">
-        <v>14.22966670775647</v>
+        <v>8.739367583070342</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.91460702842732</v>
+        <v>21.51427659663607</v>
       </c>
       <c r="F17">
-        <v>34.50999983943441</v>
+        <v>38.77294632742985</v>
       </c>
       <c r="G17">
-        <v>2.046538574723957</v>
+        <v>3.608546907797488</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.305035489030247</v>
+        <v>7.619143506735765</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.88579598172256</v>
+        <v>19.48134070294982</v>
       </c>
       <c r="N17">
-        <v>10.98197743743037</v>
+        <v>16.95943198710449</v>
       </c>
       <c r="O17">
-        <v>15.06588249229768</v>
+        <v>20.02713365168679</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.82085233550507</v>
+        <v>13.20210772693667</v>
       </c>
       <c r="C18">
-        <v>14.07323221561347</v>
+        <v>8.658942263979149</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.78039260117028</v>
+        <v>21.50029437410247</v>
       </c>
       <c r="F18">
-        <v>34.19723854737461</v>
+        <v>38.73644977303153</v>
       </c>
       <c r="G18">
-        <v>2.047904448030064</v>
+        <v>3.609015480764863</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.318898281197789</v>
+        <v>7.623316031892409</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.63271036802029</v>
+        <v>19.42986237107382</v>
       </c>
       <c r="N18">
-        <v>11.02259695708584</v>
+        <v>16.97177549675724</v>
       </c>
       <c r="O18">
-        <v>14.98204219046972</v>
+        <v>20.03186777099273</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.72796439859513</v>
+        <v>13.16045927235319</v>
       </c>
       <c r="C19">
-        <v>14.01989596485441</v>
+        <v>8.631519431476258</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.73490894057816</v>
+        <v>21.49562335768828</v>
       </c>
       <c r="F19">
-        <v>34.091319577467</v>
+        <v>38.72426281852145</v>
       </c>
       <c r="G19">
-        <v>2.048368199370736</v>
+        <v>3.609175228415823</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.323601684843298</v>
+        <v>7.624737827115045</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.54638694550142</v>
+        <v>19.41245285433179</v>
       </c>
       <c r="N19">
-        <v>11.0364097586892</v>
+        <v>16.9759856509139</v>
       </c>
       <c r="O19">
-        <v>14.95393522067338</v>
+        <v>20.03357038046964</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.1431868891451</v>
+        <v>13.346911672874</v>
       </c>
       <c r="C20">
-        <v>14.25844336502576</v>
+        <v>8.75416096253743</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.9394269910718</v>
+        <v>21.51689431819719</v>
       </c>
       <c r="F20">
-        <v>34.56787237423746</v>
+        <v>38.77978166500916</v>
       </c>
       <c r="G20">
-        <v>2.046286388039816</v>
+        <v>3.608460706128271</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.302474332603015</v>
+        <v>7.618375561890252</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.93233640964459</v>
+        <v>19.49087742063523</v>
       </c>
       <c r="N20">
-        <v>10.97448811863097</v>
+        <v>16.95716213031763</v>
       </c>
       <c r="O20">
-        <v>15.08153259503832</v>
+        <v>20.02630486357977</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.48988022764436</v>
+        <v>13.9559945065547</v>
       </c>
       <c r="C21">
-        <v>15.03418894727905</v>
+        <v>9.15270906362667</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.62335796438751</v>
+        <v>21.59271731335865</v>
       </c>
       <c r="F21">
-        <v>36.16658541079818</v>
+        <v>38.97804345344606</v>
       </c>
       <c r="G21">
-        <v>2.039377192210044</v>
+        <v>3.606136097764123</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.232119122037941</v>
+        <v>7.597627074314667</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.18542767510649</v>
+        <v>19.75556897245802</v>
       </c>
       <c r="N21">
-        <v>10.77064148022192</v>
+        <v>16.89606051475098</v>
       </c>
       <c r="O21">
-        <v>15.52982073480208</v>
+        <v>20.00884500657683</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.33434818485882</v>
+        <v>14.34068578143682</v>
       </c>
       <c r="C22">
-        <v>15.52204232859902</v>
+        <v>9.402966115990013</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.06756367474113</v>
+        <v>21.64547420799788</v>
       </c>
       <c r="F22">
-        <v>37.2088115254349</v>
+        <v>39.11622080541496</v>
       </c>
       <c r="G22">
-        <v>2.034919946887399</v>
+        <v>3.604673288133353</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.186551866595326</v>
+        <v>7.584532691963355</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.97233478193872</v>
+        <v>19.92920910641255</v>
       </c>
       <c r="N22">
-        <v>10.64061137456216</v>
+        <v>16.8577201129819</v>
       </c>
       <c r="O22">
-        <v>15.83750978379564</v>
+        <v>20.00262989136314</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.88687755003149</v>
+        <v>14.13661859747913</v>
       </c>
       <c r="C23">
-        <v>15.26341292800349</v>
+        <v>9.270342677172509</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17.83075878642745</v>
+        <v>21.61702679273261</v>
       </c>
       <c r="F23">
-        <v>36.65283976884447</v>
+        <v>39.04169514448498</v>
       </c>
       <c r="G23">
-        <v>2.037293883151549</v>
+        <v>3.605448867632773</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.210837797070799</v>
+        <v>7.591478903020087</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.55525022773982</v>
+        <v>19.83649021543875</v>
       </c>
       <c r="N23">
-        <v>10.70971385989276</v>
+        <v>16.878037599995</v>
       </c>
       <c r="O23">
-        <v>15.67193762360604</v>
+        <v>20.00547073050395</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.12056790326104</v>
+        <v>13.33673675554251</v>
       </c>
       <c r="C24">
-        <v>14.24544036962255</v>
+        <v>8.747476489232058</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.92820686059363</v>
+        <v>21.51570972545775</v>
       </c>
       <c r="F24">
-        <v>34.54170916070436</v>
+        <v>38.77668838742878</v>
       </c>
       <c r="G24">
-        <v>2.046400376792334</v>
+        <v>3.608499657381521</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.303632040846854</v>
+        <v>7.6187225799973</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.91130727144006</v>
+        <v>19.48656560014364</v>
       </c>
       <c r="N24">
-        <v>10.9778728949891</v>
+        <v>16.95818775621459</v>
       </c>
       <c r="O24">
-        <v>15.07445221546526</v>
+        <v>20.02667774261104</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.05964053466188</v>
+        <v>12.41947995447086</v>
       </c>
       <c r="C25">
-        <v>13.06504818954338</v>
+        <v>8.140646495900011</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.94541477410515</v>
+        <v>21.42044718787906</v>
       </c>
       <c r="F25">
-        <v>32.25908770679354</v>
+        <v>38.5286245261612</v>
       </c>
       <c r="G25">
-        <v>2.056507279707788</v>
+        <v>3.612034473159389</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.405852628348652</v>
+        <v>7.650122842593207</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.16191093614741</v>
+        <v>19.11347338886675</v>
       </c>
       <c r="N25">
-        <v>11.28046809743057</v>
+        <v>17.05150894703908</v>
       </c>
       <c r="O25">
-        <v>14.49230522281342</v>
+        <v>20.07175514454467</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_65/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_65/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.70123487346835</v>
+        <v>18.40550279451024</v>
       </c>
       <c r="C2">
-        <v>7.658386050022585</v>
+        <v>12.12528674185806</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>21.36261348978845</v>
+        <v>15.21752855102272</v>
       </c>
       <c r="F2">
-        <v>38.37922495233495</v>
+        <v>30.58210902360738</v>
       </c>
       <c r="G2">
-        <v>3.614849352230174</v>
+        <v>2.064228819156653</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.674993271905417</v>
+        <v>4.483314060752134</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.84418612527423</v>
+        <v>16.89081433883419</v>
       </c>
       <c r="N2">
-        <v>17.12616918317195</v>
+        <v>11.51449709108499</v>
       </c>
       <c r="O2">
-        <v>20.12388729016065</v>
+        <v>14.11594635243616</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.19032637952035</v>
+        <v>17.19796501335437</v>
       </c>
       <c r="C3">
-        <v>7.310391844228143</v>
+        <v>11.44481678227383</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.33120191511144</v>
+        <v>14.72396563833668</v>
       </c>
       <c r="F3">
-        <v>38.29901435393634</v>
+        <v>29.45353460216104</v>
       </c>
       <c r="G3">
-        <v>3.6168905678764</v>
+        <v>2.069652562878103</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.692949633881477</v>
+        <v>4.537347398972276</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.66590936621242</v>
+        <v>15.98593974570852</v>
       </c>
       <c r="N3">
-        <v>17.1804997178728</v>
+        <v>11.68004151267573</v>
       </c>
       <c r="O3">
-        <v>20.17093952112802</v>
+        <v>13.89251942045249</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.86579563516508</v>
+        <v>16.41349978131371</v>
       </c>
       <c r="C4">
-        <v>7.086697488044908</v>
+        <v>11.00581781350832</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>21.31578405168231</v>
+        <v>14.42172555901067</v>
       </c>
       <c r="F4">
-        <v>38.26021885541592</v>
+        <v>28.7667443910662</v>
       </c>
       <c r="G4">
-        <v>3.618210138490815</v>
+        <v>2.073081817256127</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.704521281693746</v>
+        <v>4.571332821620298</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.55880693066664</v>
+        <v>15.41018862463674</v>
       </c>
       <c r="N4">
-        <v>17.21570734213931</v>
+        <v>11.78510145875891</v>
       </c>
       <c r="O4">
-        <v>20.20557592714331</v>
+        <v>13.77049963444361</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.73101199899181</v>
+        <v>16.08295819741371</v>
       </c>
       <c r="C5">
-        <v>6.993094136585347</v>
+        <v>10.82166177114076</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21.3104782690251</v>
+        <v>14.29891977895877</v>
       </c>
       <c r="F5">
-        <v>38.24704787699326</v>
+        <v>28.48879449206028</v>
       </c>
       <c r="G5">
-        <v>3.618764588419547</v>
+        <v>2.074504858653962</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.709374634003067</v>
+        <v>4.585392481111873</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.51579689897248</v>
+        <v>15.17073888590715</v>
       </c>
       <c r="N5">
-        <v>17.23052055912065</v>
+        <v>11.82877242681955</v>
       </c>
       <c r="O5">
-        <v>20.22112984580378</v>
+        <v>13.72451074791986</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.70848420410102</v>
+        <v>16.02741458701444</v>
       </c>
       <c r="C6">
-        <v>6.977406055803197</v>
+        <v>10.79076745879537</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21.30965637410863</v>
+        <v>14.27855443658398</v>
       </c>
       <c r="F6">
-        <v>38.24502043460858</v>
+        <v>28.44276864052948</v>
       </c>
       <c r="G6">
-        <v>3.618857665480544</v>
+        <v>2.074742718712802</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.710188865389432</v>
+        <v>4.587739976673917</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.50869466543131</v>
+        <v>15.13069496160692</v>
       </c>
       <c r="N6">
-        <v>17.23300844729307</v>
+        <v>11.83607579409868</v>
       </c>
       <c r="O6">
-        <v>20.22379931918242</v>
+        <v>13.71709735314878</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.86398789084838</v>
+        <v>16.40908603104513</v>
       </c>
       <c r="C7">
-        <v>7.085444917053799</v>
+        <v>11.00335541597195</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21.31570853463634</v>
+        <v>14.42006768822044</v>
       </c>
       <c r="F7">
-        <v>38.26003053307871</v>
+        <v>28.76298756459405</v>
       </c>
       <c r="G7">
-        <v>3.618217548250055</v>
+        <v>2.073100904384642</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.704586177146069</v>
+        <v>4.571521574559705</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.55822425687092</v>
+        <v>15.4069785086761</v>
       </c>
       <c r="N7">
-        <v>17.21590523091219</v>
+        <v>11.78568694586226</v>
       </c>
       <c r="O7">
-        <v>20.20577987285118</v>
+        <v>13.76986440267173</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.52742715376401</v>
+        <v>17.99804592765237</v>
       </c>
       <c r="C8">
-        <v>7.540519375186967</v>
+        <v>11.89509254058067</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>21.35098251240834</v>
+        <v>15.04727021860106</v>
       </c>
       <c r="F8">
-        <v>38.34940524777043</v>
+        <v>30.19191427596502</v>
       </c>
       <c r="G8">
-        <v>3.615539444276956</v>
+        <v>2.0660787904109</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.681071482179595</v>
+        <v>4.501781214122838</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.7822517227443</v>
+        <v>16.58312670735561</v>
       </c>
       <c r="N8">
-        <v>17.14451931319015</v>
+        <v>11.57086738336974</v>
       </c>
       <c r="O8">
-        <v>20.13891505095276</v>
+        <v>14.03571853953594</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.7354181834289</v>
+        <v>20.77492245880323</v>
       </c>
       <c r="C9">
-        <v>8.350672494196578</v>
+        <v>13.47367246831821</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>21.45064010215403</v>
+        <v>16.27741276422675</v>
       </c>
       <c r="F9">
-        <v>38.60706607230819</v>
+        <v>33.02806717654946</v>
       </c>
       <c r="G9">
-        <v>3.610810954836881</v>
+        <v>2.05306154324521</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.639274934073735</v>
+        <v>4.371101560387119</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.23842076996198</v>
+        <v>18.72137423771574</v>
       </c>
       <c r="N9">
-        <v>17.01915243793947</v>
+        <v>11.17678158775581</v>
       </c>
       <c r="O9">
-        <v>20.05361704171103</v>
+        <v>14.68017811026189</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.55828549208625</v>
+        <v>22.6120985187937</v>
       </c>
       <c r="C10">
-        <v>8.892818552334926</v>
+        <v>14.52821218662154</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>21.54211862825781</v>
+        <v>17.17405036701969</v>
       </c>
       <c r="F10">
-        <v>38.8456834192248</v>
+        <v>35.11545753320483</v>
       </c>
       <c r="G10">
-        <v>3.607652502080238</v>
+        <v>2.043908073626111</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.611170407558106</v>
+        <v>4.278296456702729</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.58127864298968</v>
+        <v>20.36841710089264</v>
       </c>
       <c r="N10">
-        <v>16.9358946931427</v>
+        <v>10.90402240294812</v>
       </c>
       <c r="O10">
-        <v>20.01916832114583</v>
+        <v>15.23166809682153</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.9172981980687</v>
+        <v>23.4047040803223</v>
       </c>
       <c r="C11">
-        <v>9.12747636933093</v>
+        <v>14.98503863652231</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.58761651063489</v>
+        <v>17.57919522847764</v>
       </c>
       <c r="F11">
-        <v>38.96469204896042</v>
+        <v>36.06312932812593</v>
       </c>
       <c r="G11">
-        <v>3.606283433363782</v>
+        <v>2.039821385527188</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.598944348209256</v>
+        <v>4.236652728442795</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.73837449443594</v>
+        <v>21.10610768575903</v>
       </c>
       <c r="N11">
-        <v>16.89992688180938</v>
+        <v>10.78366567298773</v>
       </c>
       <c r="O11">
-        <v>20.00967382478912</v>
+        <v>15.49991739497036</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.05095846604176</v>
+        <v>23.69871961164135</v>
       </c>
       <c r="C12">
-        <v>9.21458506304211</v>
+        <v>15.15474342566033</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.60539569132542</v>
+        <v>17.73214145522651</v>
       </c>
       <c r="F12">
-        <v>39.01123616226732</v>
+        <v>36.42154930248535</v>
       </c>
       <c r="G12">
-        <v>3.605774686451464</v>
+        <v>2.038283940524672</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.594394575822538</v>
+        <v>4.22095511358538</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.79797831814894</v>
+        <v>21.37994696226217</v>
       </c>
       <c r="N12">
-        <v>16.88658001839172</v>
+        <v>10.73863609938474</v>
       </c>
       <c r="O12">
-        <v>20.00696972160798</v>
+        <v>15.60401912784902</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.02227544046155</v>
+        <v>23.63566934496444</v>
       </c>
       <c r="C13">
-        <v>9.195902951917672</v>
+        <v>15.11834039364184</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.60154230011153</v>
+        <v>17.69922386831205</v>
       </c>
       <c r="F13">
-        <v>39.00114675642963</v>
+        <v>36.34437903843008</v>
       </c>
       <c r="G13">
-        <v>3.605883824032215</v>
+        <v>2.038614624841872</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.595370900134431</v>
+        <v>4.224332852130708</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.7851371997366</v>
+        <v>21.32121426796353</v>
       </c>
       <c r="N13">
-        <v>16.88944235858008</v>
+        <v>10.74830948267823</v>
       </c>
       <c r="O13">
-        <v>20.00751241716006</v>
+        <v>15.58148647150942</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.92834085940943</v>
+        <v>23.42901525697913</v>
       </c>
       <c r="C14">
-        <v>9.134678102697153</v>
+        <v>14.99906613093429</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.58906823956525</v>
+        <v>17.59178808218583</v>
       </c>
       <c r="F14">
-        <v>38.96849179557999</v>
+        <v>36.09262643306629</v>
       </c>
       <c r="G14">
-        <v>3.606241384534983</v>
+        <v>2.039694702776496</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.598568435173875</v>
+        <v>4.235359897367993</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.74327610050578</v>
+        <v>21.12874646732554</v>
       </c>
       <c r="N14">
-        <v>16.89882335311973</v>
+        <v>10.7799500248063</v>
       </c>
       <c r="O14">
-        <v>20.00943347899677</v>
+        <v>15.50843124933281</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.87050261089496</v>
+        <v>23.30163808122517</v>
       </c>
       <c r="C15">
-        <v>9.096947263811673</v>
+        <v>14.92557966817414</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>21.58149889961065</v>
+        <v>17.52591687665372</v>
       </c>
       <c r="F15">
-        <v>38.94868136820757</v>
+        <v>35.93835879789319</v>
       </c>
       <c r="G15">
-        <v>3.60646166109136</v>
+        <v>2.040357564907176</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.600537420815582</v>
+        <v>4.242123325398795</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.71764855453249</v>
+        <v>21.01013980853114</v>
       </c>
       <c r="N15">
-        <v>16.90460506034098</v>
+        <v>10.79940238962018</v>
       </c>
       <c r="O15">
-        <v>20.01072633387363</v>
+        <v>15.46401183162114</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.53450717439349</v>
+        <v>22.55943825581323</v>
       </c>
       <c r="C16">
-        <v>8.877239584332418</v>
+        <v>14.49789721415687</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>21.5392226867689</v>
+        <v>17.14751086334195</v>
       </c>
       <c r="F16">
-        <v>38.83811424563466</v>
+        <v>35.05347117862676</v>
       </c>
       <c r="G16">
-        <v>3.607743332555491</v>
+        <v>2.044176618028793</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.611980621141422</v>
+        <v>4.281028635016662</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.57103071966232</v>
+        <v>20.31943149974684</v>
       </c>
       <c r="N16">
-        <v>16.93828357050304</v>
+        <v>10.91196383194261</v>
       </c>
       <c r="O16">
-        <v>20.01991337297229</v>
+        <v>15.21448904477291</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.32439551031622</v>
+        <v>22.0931270996069</v>
       </c>
       <c r="C17">
-        <v>8.739367583070342</v>
+        <v>14.22966670775637</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>21.51427659663607</v>
+        <v>16.91460702842728</v>
       </c>
       <c r="F17">
-        <v>38.77294632742985</v>
+        <v>34.5099998394344</v>
       </c>
       <c r="G17">
-        <v>3.608546907797488</v>
+        <v>2.046538574723955</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.619143506735765</v>
+        <v>4.305035489030214</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.48134070294982</v>
+        <v>19.88579598172259</v>
       </c>
       <c r="N17">
-        <v>16.95943198710449</v>
+        <v>10.98197743743041</v>
       </c>
       <c r="O17">
-        <v>20.02713365168679</v>
+        <v>15.0658824922977</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.20210772693667</v>
+        <v>21.82085233550517</v>
       </c>
       <c r="C18">
-        <v>8.658942263979149</v>
+        <v>14.07323221561337</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>21.50029437410247</v>
+        <v>16.78039260117031</v>
       </c>
       <c r="F18">
-        <v>38.73644977303153</v>
+        <v>34.19723854737461</v>
       </c>
       <c r="G18">
-        <v>3.609015480764863</v>
+        <v>2.04790444802993</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.623316031892409</v>
+        <v>4.318898281197755</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.42986237107382</v>
+        <v>19.63271036802033</v>
       </c>
       <c r="N18">
-        <v>16.97177549675724</v>
+        <v>11.02259695708581</v>
       </c>
       <c r="O18">
-        <v>20.03186777099273</v>
+        <v>14.98204219046967</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.16045927235319</v>
+        <v>21.72796439859512</v>
       </c>
       <c r="C19">
-        <v>8.631519431476258</v>
+        <v>14.01989596485449</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>21.49562335768828</v>
+        <v>16.73490894057812</v>
       </c>
       <c r="F19">
-        <v>38.72426281852145</v>
+        <v>34.09131957746702</v>
       </c>
       <c r="G19">
-        <v>3.609175228415823</v>
+        <v>2.048368199370604</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.624737827115045</v>
+        <v>4.323601684843298</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.41245285433179</v>
+        <v>19.54638694550144</v>
       </c>
       <c r="N19">
-        <v>16.9759856509139</v>
+        <v>11.03640975868923</v>
       </c>
       <c r="O19">
-        <v>20.03357038046964</v>
+        <v>14.95393522067345</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.346911672874</v>
+        <v>22.143186889145</v>
       </c>
       <c r="C20">
-        <v>8.75416096253743</v>
+        <v>14.25844336502571</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>21.51689431819719</v>
+        <v>16.93942699107171</v>
       </c>
       <c r="F20">
-        <v>38.77978166500916</v>
+        <v>34.56787237423751</v>
       </c>
       <c r="G20">
-        <v>3.608460706128271</v>
+        <v>2.046286388039684</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.618375561890252</v>
+        <v>4.302474332602981</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.49087742063523</v>
+        <v>19.93233640964459</v>
       </c>
       <c r="N20">
-        <v>16.95716213031763</v>
+        <v>10.974488118631</v>
       </c>
       <c r="O20">
-        <v>20.02630486357977</v>
+        <v>15.08153259503841</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.9559945065547</v>
+        <v>23.4898802276443</v>
       </c>
       <c r="C21">
-        <v>9.15270906362667</v>
+        <v>15.03418894727885</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.59271731335865</v>
+        <v>17.62335796438751</v>
       </c>
       <c r="F21">
-        <v>38.97804345344606</v>
+        <v>36.16658541079812</v>
       </c>
       <c r="G21">
-        <v>3.606136097764123</v>
+        <v>2.039377192209913</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.597627074314667</v>
+        <v>4.232119122037973</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.75556897245802</v>
+        <v>21.18542767510647</v>
       </c>
       <c r="N21">
-        <v>16.89606051475098</v>
+        <v>10.77064148022191</v>
       </c>
       <c r="O21">
-        <v>20.00884500657683</v>
+        <v>15.52982073480206</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.34068578143682</v>
+        <v>24.33434818485883</v>
       </c>
       <c r="C22">
-        <v>9.402966115990013</v>
+        <v>15.52204232859904</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.64547420799788</v>
+        <v>18.06756367474116</v>
       </c>
       <c r="F22">
-        <v>39.11622080541496</v>
+        <v>37.20881152543491</v>
       </c>
       <c r="G22">
-        <v>3.604673288133353</v>
+        <v>2.034919946887797</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.584532691963355</v>
+        <v>4.186551866595392</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.92920910641255</v>
+        <v>21.9723347819387</v>
       </c>
       <c r="N22">
-        <v>16.8577201129819</v>
+        <v>10.64061137456213</v>
       </c>
       <c r="O22">
-        <v>20.00262989136314</v>
+        <v>15.83750978379562</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.13661859747913</v>
+        <v>23.8868775500315</v>
       </c>
       <c r="C23">
-        <v>9.270342677172509</v>
+        <v>15.26341292800355</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.61702679273261</v>
+        <v>17.83075878642751</v>
       </c>
       <c r="F23">
-        <v>39.04169514448498</v>
+        <v>36.65283976884452</v>
       </c>
       <c r="G23">
-        <v>3.605448867632773</v>
+        <v>2.037293883151549</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.591478903020087</v>
+        <v>4.210837797070834</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.83649021543875</v>
+        <v>21.55525022773979</v>
       </c>
       <c r="N23">
-        <v>16.878037599995</v>
+        <v>10.70971385989281</v>
       </c>
       <c r="O23">
-        <v>20.00547073050395</v>
+        <v>15.67193762360605</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.33673675554251</v>
+        <v>22.12056790326105</v>
       </c>
       <c r="C24">
-        <v>8.747476489232058</v>
+        <v>14.2454403696226</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>21.51570972545775</v>
+        <v>16.92820686059366</v>
       </c>
       <c r="F24">
-        <v>38.77668838742878</v>
+        <v>34.54170916070431</v>
       </c>
       <c r="G24">
-        <v>3.608499657381521</v>
+        <v>2.046400376792066</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.6187225799973</v>
+        <v>4.303632040846788</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.48656560014364</v>
+        <v>19.91130727144008</v>
       </c>
       <c r="N24">
-        <v>16.95818775621459</v>
+        <v>10.977872894989</v>
       </c>
       <c r="O24">
-        <v>20.02667774261104</v>
+        <v>15.07445221546518</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.41947995447086</v>
+        <v>20.05964053466193</v>
       </c>
       <c r="C25">
-        <v>8.140646495900011</v>
+        <v>13.06504818954336</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>21.42044718787906</v>
+        <v>15.94541477410518</v>
       </c>
       <c r="F25">
-        <v>38.5286245261612</v>
+        <v>32.25908770679352</v>
       </c>
       <c r="G25">
-        <v>3.612034473159389</v>
+        <v>2.056507279707787</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.650122842593207</v>
+        <v>4.40585262834875</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.11347338886675</v>
+        <v>18.16191093614741</v>
       </c>
       <c r="N25">
-        <v>17.05150894703908</v>
+        <v>11.28046809743057</v>
       </c>
       <c r="O25">
-        <v>20.07175514454467</v>
+        <v>14.49230522281338</v>
       </c>
     </row>
   </sheetData>
